--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
@@ -534,7 +534,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5316996666666667</v>
+        <v>0.5316996666666666</v>
       </c>
       <c r="H2">
         <v>1.595099</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>4.221909273832556</v>
+        <v>8.377268358886777</v>
       </c>
       <c r="R2">
-        <v>37.99718346449301</v>
+        <v>75.395415229981</v>
       </c>
       <c r="S2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="T2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5316996666666667</v>
+        <v>0.5316996666666666</v>
       </c>
       <c r="H3">
         <v>1.595099</v>
@@ -620,22 +620,22 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
-        <v>14.33135164251756</v>
+        <v>14.33135164251755</v>
       </c>
       <c r="R3">
         <v>128.982164782658</v>
       </c>
       <c r="S3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="T3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5316996666666667</v>
+        <v>0.5316996666666666</v>
       </c>
       <c r="H4">
         <v>1.595099</v>
@@ -682,22 +682,22 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
-        <v>3.303242488896778</v>
+        <v>3.303242488896777</v>
       </c>
       <c r="R4">
         <v>29.729182400071</v>
       </c>
       <c r="S4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="T4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
     </row>
   </sheetData>
